--- a/carpetas/downloadNucs/nucsCarpetasInvestigacion-0-7-2023.xlsx
+++ b/carpetas/downloadNucs/nucsCarpetasInvestigacion-0-7-2023.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="26">
   <si>
     <t>NUC</t>
   </si>
@@ -41,46 +41,58 @@
     <t>MP</t>
   </si>
   <si>
-    <t>Mediacion</t>
+    <t>Abierto/Reiniciado</t>
   </si>
   <si>
     <t>No Detenido</t>
   </si>
   <si>
-    <t>Unidad de Atención Temprana Penal Lázaro Cárdenas I</t>
+    <t>Unidad de Investigación Coahuayana</t>
   </si>
   <si>
-    <t>LAZARO CARDENAS</t>
+    <t>COALCOMAN</t>
   </si>
   <si>
-    <t>Daniel Bermudez Rivera</t>
+    <t>Rafael Jacinto Reyes</t>
   </si>
   <si>
-    <t>Julieta Oliva Ontiveros Mendoza</t>
+    <t>Enviadas a Litigacion</t>
   </si>
   <si>
-    <t>Maribel Sandoval Manríquez</t>
+    <t>Ricardo Talavera Rivera</t>
   </si>
   <si>
-    <t>PEDRO XOCHIPA RIOS</t>
+    <t>No Ejercicio de la accion penal</t>
   </si>
   <si>
-    <t>Margarita Isabel Hernandez Arreola</t>
+    <t>Incompetencia</t>
   </si>
   <si>
-    <t>JESSICA PINEDA PAZ</t>
+    <t>Archivo Temporal</t>
   </si>
   <si>
-    <t>Unidad de Investigación Lázaro Cárdenas</t>
+    <t>Mediacion</t>
   </si>
   <si>
-    <t>Adriana Sixtos Calvillo</t>
+    <t>Unidad de Investigación Coalcomán</t>
   </si>
   <si>
-    <t>Pedro Cisneros García</t>
+    <t>Jhony Canales Maldonado</t>
   </si>
   <si>
-    <t>Noemmi Carapia Sánchez</t>
+    <t>CESAR ULISES  GARCIA CASTELLANOS</t>
+  </si>
+  <si>
+    <t>Unidad de Investigación Tepalcatepec</t>
+  </si>
+  <si>
+    <t>Yazmín Celeste Godoy Rodriguez</t>
+  </si>
+  <si>
+    <t>Fiscalía Especializada para la Atención de Delitos de Violencia Familiar y de Género</t>
+  </si>
+  <si>
+    <t>Alejandra Escamilla Garcia</t>
   </si>
 </sst>
 </file>
@@ -446,7 +458,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:H116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="D2" sqref="D2"/>
@@ -490,7 +502,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="3">
-        <v>1002202318526</v>
+        <v>1008202324395</v>
       </c>
       <c r="B2">
         <v>2023</v>
@@ -516,7 +528,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="3">
-        <v>1002202316669</v>
+        <v>1008202324914</v>
       </c>
       <c r="B3">
         <v>2023</v>
@@ -525,7 +537,7 @@
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
@@ -537,12 +549,12 @@
         <v>11</v>
       </c>
       <c r="H3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="3">
-        <v>1002202310607</v>
+        <v>1008202324395</v>
       </c>
       <c r="B4">
         <v>2023</v>
@@ -551,7 +563,7 @@
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
@@ -568,7 +580,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="3">
-        <v>1002202321225</v>
+        <v>1008202326837</v>
       </c>
       <c r="B5">
         <v>2023</v>
@@ -577,7 +589,7 @@
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
         <v>9</v>
@@ -589,12 +601,12 @@
         <v>11</v>
       </c>
       <c r="H5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="3">
-        <v>1002202326308</v>
+        <v>1008202312211</v>
       </c>
       <c r="B6">
         <v>2023</v>
@@ -603,7 +615,7 @@
         <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s">
         <v>9</v>
@@ -615,12 +627,12 @@
         <v>11</v>
       </c>
       <c r="H6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="3">
-        <v>1002202326337</v>
+        <v>1008202239268</v>
       </c>
       <c r="B7">
         <v>2023</v>
@@ -641,12 +653,12 @@
         <v>11</v>
       </c>
       <c r="H7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="3">
-        <v>1002202325913</v>
+        <v>1008202326361</v>
       </c>
       <c r="B8">
         <v>2023</v>
@@ -655,7 +667,7 @@
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E8" t="s">
         <v>9</v>
@@ -667,12 +679,12 @@
         <v>11</v>
       </c>
       <c r="H8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="3">
-        <v>1002202323344</v>
+        <v>1008202239268</v>
       </c>
       <c r="B9">
         <v>2023</v>
@@ -681,7 +693,7 @@
         <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E9" t="s">
         <v>9</v>
@@ -698,7 +710,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="3">
-        <v>1002202322386</v>
+        <v>1008202318459</v>
       </c>
       <c r="B10">
         <v>2023</v>
@@ -707,7 +719,7 @@
         <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E10" t="s">
         <v>9</v>
@@ -719,12 +731,12 @@
         <v>11</v>
       </c>
       <c r="H10" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="3">
-        <v>1002202304014</v>
+        <v>1008202300189</v>
       </c>
       <c r="B11">
         <v>2023</v>
@@ -733,7 +745,7 @@
         <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E11" t="s">
         <v>9</v>
@@ -745,12 +757,12 @@
         <v>11</v>
       </c>
       <c r="H11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="3">
-        <v>1002202326579</v>
+        <v>1008202322190</v>
       </c>
       <c r="B12">
         <v>2023</v>
@@ -759,7 +771,7 @@
         <v>7</v>
       </c>
       <c r="D12" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E12" t="s">
         <v>9</v>
@@ -771,12 +783,12 @@
         <v>11</v>
       </c>
       <c r="H12" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="3">
-        <v>1002202325040</v>
+        <v>1008202239629</v>
       </c>
       <c r="B13">
         <v>2023</v>
@@ -785,7 +797,7 @@
         <v>7</v>
       </c>
       <c r="D13" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E13" t="s">
         <v>9</v>
@@ -797,12 +809,12 @@
         <v>11</v>
       </c>
       <c r="H13" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="3">
-        <v>1002202326977</v>
+        <v>1008202326273</v>
       </c>
       <c r="B14">
         <v>2023</v>
@@ -811,7 +823,7 @@
         <v>7</v>
       </c>
       <c r="D14" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E14" t="s">
         <v>9</v>
@@ -823,12 +835,12 @@
         <v>11</v>
       </c>
       <c r="H14" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="3">
-        <v>1002202324874</v>
+        <v>1008202303729</v>
       </c>
       <c r="B15">
         <v>2023</v>
@@ -849,12 +861,12 @@
         <v>11</v>
       </c>
       <c r="H15" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="3">
-        <v>1002202326194</v>
+        <v>1008202325740</v>
       </c>
       <c r="B16">
         <v>2023</v>
@@ -863,24 +875,24 @@
         <v>7</v>
       </c>
       <c r="D16" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E16" t="s">
         <v>9</v>
       </c>
       <c r="F16" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G16" t="s">
         <v>11</v>
       </c>
       <c r="H16" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="3">
-        <v>1002202325962</v>
+        <v>1008202318141</v>
       </c>
       <c r="B17">
         <v>2023</v>
@@ -895,18 +907,18 @@
         <v>9</v>
       </c>
       <c r="F17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G17" t="s">
         <v>11</v>
       </c>
       <c r="H17" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="3">
-        <v>1002202326114</v>
+        <v>1008202325697</v>
       </c>
       <c r="B18">
         <v>2023</v>
@@ -915,24 +927,24 @@
         <v>7</v>
       </c>
       <c r="D18" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E18" t="s">
         <v>9</v>
       </c>
       <c r="F18" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G18" t="s">
         <v>11</v>
       </c>
       <c r="H18" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="3">
-        <v>1002202326663</v>
+        <v>1008202318141</v>
       </c>
       <c r="B19">
         <v>2023</v>
@@ -941,24 +953,24 @@
         <v>7</v>
       </c>
       <c r="D19" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E19" t="s">
         <v>9</v>
       </c>
       <c r="F19" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G19" t="s">
         <v>11</v>
       </c>
       <c r="H19" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="3">
-        <v>1002202327144</v>
+        <v>1008202328296</v>
       </c>
       <c r="B20">
         <v>2023</v>
@@ -967,24 +979,24 @@
         <v>7</v>
       </c>
       <c r="D20" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E20" t="s">
         <v>9</v>
       </c>
       <c r="F20" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G20" t="s">
         <v>11</v>
       </c>
       <c r="H20" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="3">
-        <v>1002202326801</v>
+        <v>1008202325294</v>
       </c>
       <c r="B21">
         <v>2023</v>
@@ -993,24 +1005,24 @@
         <v>7</v>
       </c>
       <c r="D21" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E21" t="s">
         <v>9</v>
       </c>
       <c r="F21" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G21" t="s">
         <v>11</v>
       </c>
       <c r="H21" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="3">
-        <v>1002202325258</v>
+        <v>1008202327792</v>
       </c>
       <c r="B22">
         <v>2023</v>
@@ -1019,24 +1031,24 @@
         <v>7</v>
       </c>
       <c r="D22" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E22" t="s">
         <v>9</v>
       </c>
       <c r="F22" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G22" t="s">
         <v>11</v>
       </c>
       <c r="H22" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="3">
-        <v>1002202324902</v>
+        <v>1008202327368</v>
       </c>
       <c r="B23">
         <v>2023</v>
@@ -1045,24 +1057,24 @@
         <v>7</v>
       </c>
       <c r="D23" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E23" t="s">
         <v>9</v>
       </c>
       <c r="F23" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G23" t="s">
         <v>11</v>
       </c>
       <c r="H23" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="3">
-        <v>1002202319851</v>
+        <v>1008202328135</v>
       </c>
       <c r="B24">
         <v>2023</v>
@@ -1071,24 +1083,24 @@
         <v>7</v>
       </c>
       <c r="D24" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E24" t="s">
         <v>9</v>
       </c>
       <c r="F24" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G24" t="s">
         <v>11</v>
       </c>
       <c r="H24" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="3">
-        <v>1002202321477</v>
+        <v>1008202324361</v>
       </c>
       <c r="B25">
         <v>2023</v>
@@ -1097,24 +1109,24 @@
         <v>7</v>
       </c>
       <c r="D25" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E25" t="s">
         <v>9</v>
       </c>
       <c r="F25" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G25" t="s">
         <v>11</v>
       </c>
       <c r="H25" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="3">
-        <v>1002202321258</v>
+        <v>1008202327837</v>
       </c>
       <c r="B26">
         <v>2023</v>
@@ -1123,24 +1135,24 @@
         <v>7</v>
       </c>
       <c r="D26" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E26" t="s">
         <v>9</v>
       </c>
       <c r="F26" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G26" t="s">
         <v>11</v>
       </c>
       <c r="H26" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="3">
-        <v>1002202320541</v>
+        <v>1008202304727</v>
       </c>
       <c r="B27">
         <v>2023</v>
@@ -1149,24 +1161,24 @@
         <v>7</v>
       </c>
       <c r="D27" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E27" t="s">
         <v>9</v>
       </c>
       <c r="F27" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G27" t="s">
         <v>11</v>
       </c>
       <c r="H27" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="3">
-        <v>1002202317213</v>
+        <v>1008202309622</v>
       </c>
       <c r="B28">
         <v>2023</v>
@@ -1175,24 +1187,24 @@
         <v>7</v>
       </c>
       <c r="D28" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E28" t="s">
         <v>9</v>
       </c>
       <c r="F28" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G28" t="s">
         <v>11</v>
       </c>
       <c r="H28" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="3">
-        <v>1002202326369</v>
+        <v>1008202308121</v>
       </c>
       <c r="B29">
         <v>2023</v>
@@ -1207,18 +1219,18 @@
         <v>9</v>
       </c>
       <c r="F29" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G29" t="s">
         <v>11</v>
       </c>
       <c r="H29" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="3">
-        <v>1002202320664</v>
+        <v>1008202308121</v>
       </c>
       <c r="B30">
         <v>2023</v>
@@ -1227,19 +1239,2255 @@
         <v>7</v>
       </c>
       <c r="D30" t="s">
+        <v>17</v>
+      </c>
+      <c r="E30" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" t="s">
+        <v>10</v>
+      </c>
+      <c r="G30" t="s">
+        <v>11</v>
+      </c>
+      <c r="H30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="3">
+        <v>1008201838911</v>
+      </c>
+      <c r="B31">
+        <v>2023</v>
+      </c>
+      <c r="C31">
+        <v>7</v>
+      </c>
+      <c r="D31" t="s">
+        <v>17</v>
+      </c>
+      <c r="E31" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" t="s">
+        <v>19</v>
+      </c>
+      <c r="G31" t="s">
+        <v>11</v>
+      </c>
+      <c r="H31" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="3">
+        <v>1008202320288</v>
+      </c>
+      <c r="B32">
+        <v>2023</v>
+      </c>
+      <c r="C32">
+        <v>7</v>
+      </c>
+      <c r="D32" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32" t="s">
+        <v>19</v>
+      </c>
+      <c r="G32" t="s">
+        <v>11</v>
+      </c>
+      <c r="H32" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="3">
+        <v>1008201839159</v>
+      </c>
+      <c r="B33">
+        <v>2023</v>
+      </c>
+      <c r="C33">
+        <v>7</v>
+      </c>
+      <c r="D33" t="s">
+        <v>17</v>
+      </c>
+      <c r="E33" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33" t="s">
+        <v>19</v>
+      </c>
+      <c r="G33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H33" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="3">
+        <v>1008202327621</v>
+      </c>
+      <c r="B34">
+        <v>2023</v>
+      </c>
+      <c r="C34">
+        <v>7</v>
+      </c>
+      <c r="D34" t="s">
+        <v>15</v>
+      </c>
+      <c r="E34" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34" t="s">
+        <v>19</v>
+      </c>
+      <c r="G34" t="s">
+        <v>11</v>
+      </c>
+      <c r="H34" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="3">
+        <v>1008201930323</v>
+      </c>
+      <c r="B35">
+        <v>2023</v>
+      </c>
+      <c r="C35">
+        <v>7</v>
+      </c>
+      <c r="D35" t="s">
         <v>8</v>
       </c>
-      <c r="E30" t="s">
-        <v>9</v>
-      </c>
-      <c r="F30" t="s">
+      <c r="E35" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35" t="s">
+        <v>19</v>
+      </c>
+      <c r="G35" t="s">
+        <v>11</v>
+      </c>
+      <c r="H35" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="3">
+        <v>1008202326486</v>
+      </c>
+      <c r="B36">
+        <v>2023</v>
+      </c>
+      <c r="C36">
+        <v>7</v>
+      </c>
+      <c r="D36" t="s">
+        <v>13</v>
+      </c>
+      <c r="E36" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36" t="s">
+        <v>19</v>
+      </c>
+      <c r="G36" t="s">
+        <v>11</v>
+      </c>
+      <c r="H36" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="3">
+        <v>1008201930323</v>
+      </c>
+      <c r="B37">
+        <v>2023</v>
+      </c>
+      <c r="C37">
+        <v>7</v>
+      </c>
+      <c r="D37" t="s">
+        <v>17</v>
+      </c>
+      <c r="E37" t="s">
+        <v>9</v>
+      </c>
+      <c r="F37" t="s">
+        <v>19</v>
+      </c>
+      <c r="G37" t="s">
+        <v>11</v>
+      </c>
+      <c r="H37" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="3">
+        <v>1008202307029</v>
+      </c>
+      <c r="B38">
+        <v>2023</v>
+      </c>
+      <c r="C38">
+        <v>7</v>
+      </c>
+      <c r="D38" t="s">
+        <v>17</v>
+      </c>
+      <c r="E38" t="s">
+        <v>9</v>
+      </c>
+      <c r="F38" t="s">
+        <v>19</v>
+      </c>
+      <c r="G38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H38" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="3">
+        <v>1008202308917</v>
+      </c>
+      <c r="B39">
+        <v>2023</v>
+      </c>
+      <c r="C39">
+        <v>7</v>
+      </c>
+      <c r="D39" t="s">
+        <v>17</v>
+      </c>
+      <c r="E39" t="s">
+        <v>9</v>
+      </c>
+      <c r="F39" t="s">
+        <v>19</v>
+      </c>
+      <c r="G39" t="s">
+        <v>11</v>
+      </c>
+      <c r="H39" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="3">
+        <v>1008202323277</v>
+      </c>
+      <c r="B40">
+        <v>2023</v>
+      </c>
+      <c r="C40">
+        <v>7</v>
+      </c>
+      <c r="D40" t="s">
+        <v>17</v>
+      </c>
+      <c r="E40" t="s">
+        <v>9</v>
+      </c>
+      <c r="F40" t="s">
+        <v>19</v>
+      </c>
+      <c r="G40" t="s">
+        <v>11</v>
+      </c>
+      <c r="H40" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="3">
+        <v>1008202325935</v>
+      </c>
+      <c r="B41">
+        <v>2023</v>
+      </c>
+      <c r="C41">
+        <v>7</v>
+      </c>
+      <c r="D41" t="s">
+        <v>17</v>
+      </c>
+      <c r="E41" t="s">
+        <v>9</v>
+      </c>
+      <c r="F41" t="s">
+        <v>19</v>
+      </c>
+      <c r="G41" t="s">
+        <v>11</v>
+      </c>
+      <c r="H41" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="3">
+        <v>1008201922455</v>
+      </c>
+      <c r="B42">
+        <v>2023</v>
+      </c>
+      <c r="C42">
+        <v>7</v>
+      </c>
+      <c r="D42" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" t="s">
+        <v>9</v>
+      </c>
+      <c r="F42" t="s">
+        <v>19</v>
+      </c>
+      <c r="G42" t="s">
+        <v>11</v>
+      </c>
+      <c r="H42" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="3">
+        <v>1008201922455</v>
+      </c>
+      <c r="B43">
+        <v>2023</v>
+      </c>
+      <c r="C43">
+        <v>7</v>
+      </c>
+      <c r="D43" t="s">
+        <v>15</v>
+      </c>
+      <c r="E43" t="s">
+        <v>9</v>
+      </c>
+      <c r="F43" t="s">
+        <v>19</v>
+      </c>
+      <c r="G43" t="s">
+        <v>11</v>
+      </c>
+      <c r="H43" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="3">
+        <v>1008201943400</v>
+      </c>
+      <c r="B44">
+        <v>2023</v>
+      </c>
+      <c r="C44">
+        <v>7</v>
+      </c>
+      <c r="D44" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44" t="s">
+        <v>9</v>
+      </c>
+      <c r="F44" t="s">
+        <v>19</v>
+      </c>
+      <c r="G44" t="s">
+        <v>11</v>
+      </c>
+      <c r="H44" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="3">
+        <v>1008201943400</v>
+      </c>
+      <c r="B45">
+        <v>2023</v>
+      </c>
+      <c r="C45">
+        <v>7</v>
+      </c>
+      <c r="D45" t="s">
+        <v>15</v>
+      </c>
+      <c r="E45" t="s">
+        <v>9</v>
+      </c>
+      <c r="F45" t="s">
+        <v>19</v>
+      </c>
+      <c r="G45" t="s">
+        <v>11</v>
+      </c>
+      <c r="H45" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="3">
+        <v>1008202000960</v>
+      </c>
+      <c r="B46">
+        <v>2023</v>
+      </c>
+      <c r="C46">
+        <v>7</v>
+      </c>
+      <c r="D46" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46" t="s">
+        <v>9</v>
+      </c>
+      <c r="F46" t="s">
+        <v>19</v>
+      </c>
+      <c r="G46" t="s">
+        <v>11</v>
+      </c>
+      <c r="H46" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="3">
+        <v>1008202000960</v>
+      </c>
+      <c r="B47">
+        <v>2023</v>
+      </c>
+      <c r="C47">
+        <v>7</v>
+      </c>
+      <c r="D47" t="s">
+        <v>15</v>
+      </c>
+      <c r="E47" t="s">
+        <v>9</v>
+      </c>
+      <c r="F47" t="s">
+        <v>19</v>
+      </c>
+      <c r="G47" t="s">
+        <v>11</v>
+      </c>
+      <c r="H47" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="3">
+        <v>1008202308251</v>
+      </c>
+      <c r="B48">
+        <v>2023</v>
+      </c>
+      <c r="C48">
+        <v>7</v>
+      </c>
+      <c r="D48" t="s">
+        <v>15</v>
+      </c>
+      <c r="E48" t="s">
+        <v>9</v>
+      </c>
+      <c r="F48" t="s">
+        <v>19</v>
+      </c>
+      <c r="G48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H48" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="3">
+        <v>1008202315068</v>
+      </c>
+      <c r="B49">
+        <v>2023</v>
+      </c>
+      <c r="C49">
+        <v>7</v>
+      </c>
+      <c r="D49" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49" t="s">
+        <v>9</v>
+      </c>
+      <c r="F49" t="s">
+        <v>19</v>
+      </c>
+      <c r="G49" t="s">
+        <v>11</v>
+      </c>
+      <c r="H49" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="3">
+        <v>1008202315068</v>
+      </c>
+      <c r="B50">
+        <v>2023</v>
+      </c>
+      <c r="C50">
+        <v>7</v>
+      </c>
+      <c r="D50" t="s">
+        <v>15</v>
+      </c>
+      <c r="E50" t="s">
+        <v>9</v>
+      </c>
+      <c r="F50" t="s">
+        <v>19</v>
+      </c>
+      <c r="G50" t="s">
+        <v>11</v>
+      </c>
+      <c r="H50" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="3">
+        <v>1008202322918</v>
+      </c>
+      <c r="B51">
+        <v>2023</v>
+      </c>
+      <c r="C51">
+        <v>7</v>
+      </c>
+      <c r="D51" t="s">
+        <v>8</v>
+      </c>
+      <c r="E51" t="s">
+        <v>9</v>
+      </c>
+      <c r="F51" t="s">
+        <v>19</v>
+      </c>
+      <c r="G51" t="s">
+        <v>11</v>
+      </c>
+      <c r="H51" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="3">
+        <v>1008202322918</v>
+      </c>
+      <c r="B52">
+        <v>2023</v>
+      </c>
+      <c r="C52">
+        <v>7</v>
+      </c>
+      <c r="D52" t="s">
+        <v>15</v>
+      </c>
+      <c r="E52" t="s">
+        <v>9</v>
+      </c>
+      <c r="F52" t="s">
+        <v>19</v>
+      </c>
+      <c r="G52" t="s">
+        <v>11</v>
+      </c>
+      <c r="H52" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="3">
+        <v>1008202325853</v>
+      </c>
+      <c r="B53">
+        <v>2023</v>
+      </c>
+      <c r="C53">
+        <v>7</v>
+      </c>
+      <c r="D53" t="s">
+        <v>15</v>
+      </c>
+      <c r="E53" t="s">
+        <v>9</v>
+      </c>
+      <c r="F53" t="s">
+        <v>19</v>
+      </c>
+      <c r="G53" t="s">
+        <v>11</v>
+      </c>
+      <c r="H53" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="3">
+        <v>1008202325623</v>
+      </c>
+      <c r="B54">
+        <v>2023</v>
+      </c>
+      <c r="C54">
+        <v>7</v>
+      </c>
+      <c r="D54" t="s">
         <v>18</v>
       </c>
-      <c r="G30" t="s">
-        <v>11</v>
-      </c>
-      <c r="H30" t="s">
+      <c r="E54" t="s">
+        <v>9</v>
+      </c>
+      <c r="F54" t="s">
+        <v>19</v>
+      </c>
+      <c r="G54" t="s">
+        <v>11</v>
+      </c>
+      <c r="H54" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="3">
+        <v>1008202325623</v>
+      </c>
+      <c r="B55">
+        <v>2023</v>
+      </c>
+      <c r="C55">
+        <v>7</v>
+      </c>
+      <c r="D55" t="s">
+        <v>8</v>
+      </c>
+      <c r="E55" t="s">
+        <v>9</v>
+      </c>
+      <c r="F55" t="s">
+        <v>19</v>
+      </c>
+      <c r="G55" t="s">
+        <v>11</v>
+      </c>
+      <c r="H55" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="3">
+        <v>1008202325623</v>
+      </c>
+      <c r="B56">
+        <v>2023</v>
+      </c>
+      <c r="C56">
+        <v>7</v>
+      </c>
+      <c r="D56" t="s">
         <v>15</v>
+      </c>
+      <c r="E56" t="s">
+        <v>9</v>
+      </c>
+      <c r="F56" t="s">
+        <v>19</v>
+      </c>
+      <c r="G56" t="s">
+        <v>11</v>
+      </c>
+      <c r="H56" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="3">
+        <v>1001201700772</v>
+      </c>
+      <c r="B57">
+        <v>2023</v>
+      </c>
+      <c r="C57">
+        <v>7</v>
+      </c>
+      <c r="D57" t="s">
+        <v>16</v>
+      </c>
+      <c r="E57" t="s">
+        <v>9</v>
+      </c>
+      <c r="F57" t="s">
+        <v>19</v>
+      </c>
+      <c r="G57" t="s">
+        <v>11</v>
+      </c>
+      <c r="H57" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="3">
+        <v>1001201928739</v>
+      </c>
+      <c r="B58">
+        <v>2023</v>
+      </c>
+      <c r="C58">
+        <v>7</v>
+      </c>
+      <c r="D58" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58" t="s">
+        <v>9</v>
+      </c>
+      <c r="F58" t="s">
+        <v>19</v>
+      </c>
+      <c r="G58" t="s">
+        <v>11</v>
+      </c>
+      <c r="H58" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="3">
+        <v>1001201928739</v>
+      </c>
+      <c r="B59">
+        <v>2023</v>
+      </c>
+      <c r="C59">
+        <v>7</v>
+      </c>
+      <c r="D59" t="s">
+        <v>16</v>
+      </c>
+      <c r="E59" t="s">
+        <v>9</v>
+      </c>
+      <c r="F59" t="s">
+        <v>19</v>
+      </c>
+      <c r="G59" t="s">
+        <v>11</v>
+      </c>
+      <c r="H59" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="3">
+        <v>1008202327192</v>
+      </c>
+      <c r="B60">
+        <v>2023</v>
+      </c>
+      <c r="C60">
+        <v>7</v>
+      </c>
+      <c r="D60" t="s">
+        <v>16</v>
+      </c>
+      <c r="E60" t="s">
+        <v>9</v>
+      </c>
+      <c r="F60" t="s">
+        <v>19</v>
+      </c>
+      <c r="G60" t="s">
+        <v>11</v>
+      </c>
+      <c r="H60" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="3">
+        <v>1008202133596</v>
+      </c>
+      <c r="B61">
+        <v>2023</v>
+      </c>
+      <c r="C61">
+        <v>7</v>
+      </c>
+      <c r="D61" t="s">
+        <v>17</v>
+      </c>
+      <c r="E61" t="s">
+        <v>9</v>
+      </c>
+      <c r="F61" t="s">
+        <v>22</v>
+      </c>
+      <c r="G61" t="s">
+        <v>11</v>
+      </c>
+      <c r="H61" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="3">
+        <v>1008202315847</v>
+      </c>
+      <c r="B62">
+        <v>2023</v>
+      </c>
+      <c r="C62">
+        <v>7</v>
+      </c>
+      <c r="D62" t="s">
+        <v>17</v>
+      </c>
+      <c r="E62" t="s">
+        <v>9</v>
+      </c>
+      <c r="F62" t="s">
+        <v>22</v>
+      </c>
+      <c r="G62" t="s">
+        <v>11</v>
+      </c>
+      <c r="H62" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="3">
+        <v>1008202326388</v>
+      </c>
+      <c r="B63">
+        <v>2023</v>
+      </c>
+      <c r="C63">
+        <v>7</v>
+      </c>
+      <c r="D63" t="s">
+        <v>17</v>
+      </c>
+      <c r="E63" t="s">
+        <v>9</v>
+      </c>
+      <c r="F63" t="s">
+        <v>22</v>
+      </c>
+      <c r="G63" t="s">
+        <v>11</v>
+      </c>
+      <c r="H63" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="3">
+        <v>1004202137565</v>
+      </c>
+      <c r="B64">
+        <v>2023</v>
+      </c>
+      <c r="C64">
+        <v>7</v>
+      </c>
+      <c r="D64" t="s">
+        <v>8</v>
+      </c>
+      <c r="E64" t="s">
+        <v>9</v>
+      </c>
+      <c r="F64" t="s">
+        <v>22</v>
+      </c>
+      <c r="G64" t="s">
+        <v>11</v>
+      </c>
+      <c r="H64" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" s="3">
+        <v>1004202137565</v>
+      </c>
+      <c r="B65">
+        <v>2023</v>
+      </c>
+      <c r="C65">
+        <v>7</v>
+      </c>
+      <c r="D65" t="s">
+        <v>17</v>
+      </c>
+      <c r="E65" t="s">
+        <v>9</v>
+      </c>
+      <c r="F65" t="s">
+        <v>22</v>
+      </c>
+      <c r="G65" t="s">
+        <v>11</v>
+      </c>
+      <c r="H65" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" s="3">
+        <v>1008202127363</v>
+      </c>
+      <c r="B66">
+        <v>2023</v>
+      </c>
+      <c r="C66">
+        <v>7</v>
+      </c>
+      <c r="D66" t="s">
+        <v>17</v>
+      </c>
+      <c r="E66" t="s">
+        <v>9</v>
+      </c>
+      <c r="F66" t="s">
+        <v>22</v>
+      </c>
+      <c r="G66" t="s">
+        <v>11</v>
+      </c>
+      <c r="H66" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" s="3">
+        <v>1008202131738</v>
+      </c>
+      <c r="B67">
+        <v>2023</v>
+      </c>
+      <c r="C67">
+        <v>7</v>
+      </c>
+      <c r="D67" t="s">
+        <v>17</v>
+      </c>
+      <c r="E67" t="s">
+        <v>9</v>
+      </c>
+      <c r="F67" t="s">
+        <v>22</v>
+      </c>
+      <c r="G67" t="s">
+        <v>11</v>
+      </c>
+      <c r="H67" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" s="3">
+        <v>1008202308405</v>
+      </c>
+      <c r="B68">
+        <v>2023</v>
+      </c>
+      <c r="C68">
+        <v>7</v>
+      </c>
+      <c r="D68" t="s">
+        <v>17</v>
+      </c>
+      <c r="E68" t="s">
+        <v>9</v>
+      </c>
+      <c r="F68" t="s">
+        <v>22</v>
+      </c>
+      <c r="G68" t="s">
+        <v>11</v>
+      </c>
+      <c r="H68" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" s="3">
+        <v>1008202235994</v>
+      </c>
+      <c r="B69">
+        <v>2023</v>
+      </c>
+      <c r="C69">
+        <v>7</v>
+      </c>
+      <c r="D69" t="s">
+        <v>17</v>
+      </c>
+      <c r="E69" t="s">
+        <v>9</v>
+      </c>
+      <c r="F69" t="s">
+        <v>22</v>
+      </c>
+      <c r="G69" t="s">
+        <v>11</v>
+      </c>
+      <c r="H69" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" s="3">
+        <v>1008202313512</v>
+      </c>
+      <c r="B70">
+        <v>2023</v>
+      </c>
+      <c r="C70">
+        <v>7</v>
+      </c>
+      <c r="D70" t="s">
+        <v>8</v>
+      </c>
+      <c r="E70" t="s">
+        <v>9</v>
+      </c>
+      <c r="F70" t="s">
+        <v>22</v>
+      </c>
+      <c r="G70" t="s">
+        <v>11</v>
+      </c>
+      <c r="H70" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" s="3">
+        <v>1008202313512</v>
+      </c>
+      <c r="B71">
+        <v>2023</v>
+      </c>
+      <c r="C71">
+        <v>7</v>
+      </c>
+      <c r="D71" t="s">
+        <v>15</v>
+      </c>
+      <c r="E71" t="s">
+        <v>9</v>
+      </c>
+      <c r="F71" t="s">
+        <v>22</v>
+      </c>
+      <c r="G71" t="s">
+        <v>11</v>
+      </c>
+      <c r="H71" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" s="3">
+        <v>1008202307167</v>
+      </c>
+      <c r="B72">
+        <v>2023</v>
+      </c>
+      <c r="C72">
+        <v>7</v>
+      </c>
+      <c r="D72" t="s">
+        <v>8</v>
+      </c>
+      <c r="E72" t="s">
+        <v>9</v>
+      </c>
+      <c r="F72" t="s">
+        <v>22</v>
+      </c>
+      <c r="G72" t="s">
+        <v>11</v>
+      </c>
+      <c r="H72" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" s="3">
+        <v>1008202307167</v>
+      </c>
+      <c r="B73">
+        <v>2023</v>
+      </c>
+      <c r="C73">
+        <v>7</v>
+      </c>
+      <c r="D73" t="s">
+        <v>15</v>
+      </c>
+      <c r="E73" t="s">
+        <v>9</v>
+      </c>
+      <c r="F73" t="s">
+        <v>22</v>
+      </c>
+      <c r="G73" t="s">
+        <v>11</v>
+      </c>
+      <c r="H73" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" s="3">
+        <v>1008202304440</v>
+      </c>
+      <c r="B74">
+        <v>2023</v>
+      </c>
+      <c r="C74">
+        <v>7</v>
+      </c>
+      <c r="D74" t="s">
+        <v>8</v>
+      </c>
+      <c r="E74" t="s">
+        <v>9</v>
+      </c>
+      <c r="F74" t="s">
+        <v>22</v>
+      </c>
+      <c r="G74" t="s">
+        <v>11</v>
+      </c>
+      <c r="H74" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" s="3">
+        <v>1008202304440</v>
+      </c>
+      <c r="B75">
+        <v>2023</v>
+      </c>
+      <c r="C75">
+        <v>7</v>
+      </c>
+      <c r="D75" t="s">
+        <v>15</v>
+      </c>
+      <c r="E75" t="s">
+        <v>9</v>
+      </c>
+      <c r="F75" t="s">
+        <v>22</v>
+      </c>
+      <c r="G75" t="s">
+        <v>11</v>
+      </c>
+      <c r="H75" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" s="3">
+        <v>1008202138502</v>
+      </c>
+      <c r="B76">
+        <v>2023</v>
+      </c>
+      <c r="C76">
+        <v>7</v>
+      </c>
+      <c r="D76" t="s">
+        <v>8</v>
+      </c>
+      <c r="E76" t="s">
+        <v>9</v>
+      </c>
+      <c r="F76" t="s">
+        <v>22</v>
+      </c>
+      <c r="G76" t="s">
+        <v>11</v>
+      </c>
+      <c r="H76" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" s="3">
+        <v>1008202138502</v>
+      </c>
+      <c r="B77">
+        <v>2023</v>
+      </c>
+      <c r="C77">
+        <v>7</v>
+      </c>
+      <c r="D77" t="s">
+        <v>15</v>
+      </c>
+      <c r="E77" t="s">
+        <v>9</v>
+      </c>
+      <c r="F77" t="s">
+        <v>22</v>
+      </c>
+      <c r="G77" t="s">
+        <v>11</v>
+      </c>
+      <c r="H77" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" s="3">
+        <v>1008202319778</v>
+      </c>
+      <c r="B78">
+        <v>2023</v>
+      </c>
+      <c r="C78">
+        <v>7</v>
+      </c>
+      <c r="D78" t="s">
+        <v>8</v>
+      </c>
+      <c r="E78" t="s">
+        <v>9</v>
+      </c>
+      <c r="F78" t="s">
+        <v>22</v>
+      </c>
+      <c r="G78" t="s">
+        <v>11</v>
+      </c>
+      <c r="H78" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" s="3">
+        <v>1008202319778</v>
+      </c>
+      <c r="B79">
+        <v>2023</v>
+      </c>
+      <c r="C79">
+        <v>7</v>
+      </c>
+      <c r="D79" t="s">
+        <v>15</v>
+      </c>
+      <c r="E79" t="s">
+        <v>9</v>
+      </c>
+      <c r="F79" t="s">
+        <v>22</v>
+      </c>
+      <c r="G79" t="s">
+        <v>11</v>
+      </c>
+      <c r="H79" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" s="3">
+        <v>1008202306390</v>
+      </c>
+      <c r="B80">
+        <v>2023</v>
+      </c>
+      <c r="C80">
+        <v>7</v>
+      </c>
+      <c r="D80" t="s">
+        <v>8</v>
+      </c>
+      <c r="E80" t="s">
+        <v>9</v>
+      </c>
+      <c r="F80" t="s">
+        <v>22</v>
+      </c>
+      <c r="G80" t="s">
+        <v>11</v>
+      </c>
+      <c r="H80" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81" s="3">
+        <v>1008202306390</v>
+      </c>
+      <c r="B81">
+        <v>2023</v>
+      </c>
+      <c r="C81">
+        <v>7</v>
+      </c>
+      <c r="D81" t="s">
+        <v>15</v>
+      </c>
+      <c r="E81" t="s">
+        <v>9</v>
+      </c>
+      <c r="F81" t="s">
+        <v>22</v>
+      </c>
+      <c r="G81" t="s">
+        <v>11</v>
+      </c>
+      <c r="H81" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" s="3">
+        <v>1008202317562</v>
+      </c>
+      <c r="B82">
+        <v>2023</v>
+      </c>
+      <c r="C82">
+        <v>7</v>
+      </c>
+      <c r="D82" t="s">
+        <v>8</v>
+      </c>
+      <c r="E82" t="s">
+        <v>9</v>
+      </c>
+      <c r="F82" t="s">
+        <v>22</v>
+      </c>
+      <c r="G82" t="s">
+        <v>11</v>
+      </c>
+      <c r="H82" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" s="3">
+        <v>1008202317562</v>
+      </c>
+      <c r="B83">
+        <v>2023</v>
+      </c>
+      <c r="C83">
+        <v>7</v>
+      </c>
+      <c r="D83" t="s">
+        <v>15</v>
+      </c>
+      <c r="E83" t="s">
+        <v>9</v>
+      </c>
+      <c r="F83" t="s">
+        <v>22</v>
+      </c>
+      <c r="G83" t="s">
+        <v>11</v>
+      </c>
+      <c r="H83" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" s="3">
+        <v>1008202248620</v>
+      </c>
+      <c r="B84">
+        <v>2023</v>
+      </c>
+      <c r="C84">
+        <v>7</v>
+      </c>
+      <c r="D84" t="s">
+        <v>8</v>
+      </c>
+      <c r="E84" t="s">
+        <v>9</v>
+      </c>
+      <c r="F84" t="s">
+        <v>22</v>
+      </c>
+      <c r="G84" t="s">
+        <v>11</v>
+      </c>
+      <c r="H84" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" s="3">
+        <v>1008202248620</v>
+      </c>
+      <c r="B85">
+        <v>2023</v>
+      </c>
+      <c r="C85">
+        <v>7</v>
+      </c>
+      <c r="D85" t="s">
+        <v>15</v>
+      </c>
+      <c r="E85" t="s">
+        <v>9</v>
+      </c>
+      <c r="F85" t="s">
+        <v>22</v>
+      </c>
+      <c r="G85" t="s">
+        <v>11</v>
+      </c>
+      <c r="H85" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" s="3">
+        <v>1008202327048</v>
+      </c>
+      <c r="B86">
+        <v>2023</v>
+      </c>
+      <c r="C86">
+        <v>7</v>
+      </c>
+      <c r="D86" t="s">
+        <v>18</v>
+      </c>
+      <c r="E86" t="s">
+        <v>9</v>
+      </c>
+      <c r="F86" t="s">
+        <v>22</v>
+      </c>
+      <c r="G86" t="s">
+        <v>11</v>
+      </c>
+      <c r="H86" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87" s="3">
+        <v>1008202327048</v>
+      </c>
+      <c r="B87">
+        <v>2023</v>
+      </c>
+      <c r="C87">
+        <v>7</v>
+      </c>
+      <c r="D87" t="s">
+        <v>8</v>
+      </c>
+      <c r="E87" t="s">
+        <v>9</v>
+      </c>
+      <c r="F87" t="s">
+        <v>22</v>
+      </c>
+      <c r="G87" t="s">
+        <v>11</v>
+      </c>
+      <c r="H87" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88" s="3">
+        <v>1008202327048</v>
+      </c>
+      <c r="B88">
+        <v>2023</v>
+      </c>
+      <c r="C88">
+        <v>7</v>
+      </c>
+      <c r="D88" t="s">
+        <v>15</v>
+      </c>
+      <c r="E88" t="s">
+        <v>9</v>
+      </c>
+      <c r="F88" t="s">
+        <v>22</v>
+      </c>
+      <c r="G88" t="s">
+        <v>11</v>
+      </c>
+      <c r="H88" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" s="3">
+        <v>1008202327575</v>
+      </c>
+      <c r="B89">
+        <v>2023</v>
+      </c>
+      <c r="C89">
+        <v>7</v>
+      </c>
+      <c r="D89" t="s">
+        <v>18</v>
+      </c>
+      <c r="E89" t="s">
+        <v>9</v>
+      </c>
+      <c r="F89" t="s">
+        <v>22</v>
+      </c>
+      <c r="G89" t="s">
+        <v>11</v>
+      </c>
+      <c r="H89" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" s="3">
+        <v>1008202327575</v>
+      </c>
+      <c r="B90">
+        <v>2023</v>
+      </c>
+      <c r="C90">
+        <v>7</v>
+      </c>
+      <c r="D90" t="s">
+        <v>8</v>
+      </c>
+      <c r="E90" t="s">
+        <v>9</v>
+      </c>
+      <c r="F90" t="s">
+        <v>22</v>
+      </c>
+      <c r="G90" t="s">
+        <v>11</v>
+      </c>
+      <c r="H90" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" s="3">
+        <v>1008202327575</v>
+      </c>
+      <c r="B91">
+        <v>2023</v>
+      </c>
+      <c r="C91">
+        <v>7</v>
+      </c>
+      <c r="D91" t="s">
+        <v>15</v>
+      </c>
+      <c r="E91" t="s">
+        <v>9</v>
+      </c>
+      <c r="F91" t="s">
+        <v>22</v>
+      </c>
+      <c r="G91" t="s">
+        <v>11</v>
+      </c>
+      <c r="H91" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92" s="3">
+        <v>1008202327651</v>
+      </c>
+      <c r="B92">
+        <v>2023</v>
+      </c>
+      <c r="C92">
+        <v>7</v>
+      </c>
+      <c r="D92" t="s">
+        <v>18</v>
+      </c>
+      <c r="E92" t="s">
+        <v>9</v>
+      </c>
+      <c r="F92" t="s">
+        <v>22</v>
+      </c>
+      <c r="G92" t="s">
+        <v>11</v>
+      </c>
+      <c r="H92" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93" s="3">
+        <v>1008202327651</v>
+      </c>
+      <c r="B93">
+        <v>2023</v>
+      </c>
+      <c r="C93">
+        <v>7</v>
+      </c>
+      <c r="D93" t="s">
+        <v>8</v>
+      </c>
+      <c r="E93" t="s">
+        <v>9</v>
+      </c>
+      <c r="F93" t="s">
+        <v>22</v>
+      </c>
+      <c r="G93" t="s">
+        <v>11</v>
+      </c>
+      <c r="H93" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94" s="3">
+        <v>1008202327651</v>
+      </c>
+      <c r="B94">
+        <v>2023</v>
+      </c>
+      <c r="C94">
+        <v>7</v>
+      </c>
+      <c r="D94" t="s">
+        <v>15</v>
+      </c>
+      <c r="E94" t="s">
+        <v>9</v>
+      </c>
+      <c r="F94" t="s">
+        <v>22</v>
+      </c>
+      <c r="G94" t="s">
+        <v>11</v>
+      </c>
+      <c r="H94" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95" s="3">
+        <v>1008202326758</v>
+      </c>
+      <c r="B95">
+        <v>2023</v>
+      </c>
+      <c r="C95">
+        <v>7</v>
+      </c>
+      <c r="D95" t="s">
+        <v>18</v>
+      </c>
+      <c r="E95" t="s">
+        <v>9</v>
+      </c>
+      <c r="F95" t="s">
+        <v>22</v>
+      </c>
+      <c r="G95" t="s">
+        <v>11</v>
+      </c>
+      <c r="H95" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="A96" s="3">
+        <v>1008202325764</v>
+      </c>
+      <c r="B96">
+        <v>2023</v>
+      </c>
+      <c r="C96">
+        <v>7</v>
+      </c>
+      <c r="D96" t="s">
+        <v>13</v>
+      </c>
+      <c r="E96" t="s">
+        <v>9</v>
+      </c>
+      <c r="F96" t="s">
+        <v>22</v>
+      </c>
+      <c r="G96" t="s">
+        <v>11</v>
+      </c>
+      <c r="H96" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="A97" s="3">
+        <v>1008202325654</v>
+      </c>
+      <c r="B97">
+        <v>2023</v>
+      </c>
+      <c r="C97">
+        <v>7</v>
+      </c>
+      <c r="D97" t="s">
+        <v>13</v>
+      </c>
+      <c r="E97" t="s">
+        <v>9</v>
+      </c>
+      <c r="F97" t="s">
+        <v>22</v>
+      </c>
+      <c r="G97" t="s">
+        <v>11</v>
+      </c>
+      <c r="H97" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="A98" s="3">
+        <v>1001202205528</v>
+      </c>
+      <c r="B98">
+        <v>2023</v>
+      </c>
+      <c r="C98">
+        <v>7</v>
+      </c>
+      <c r="D98" t="s">
+        <v>8</v>
+      </c>
+      <c r="E98" t="s">
+        <v>9</v>
+      </c>
+      <c r="F98" t="s">
+        <v>22</v>
+      </c>
+      <c r="G98" t="s">
+        <v>11</v>
+      </c>
+      <c r="H98" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="A99" s="3">
+        <v>1001202205528</v>
+      </c>
+      <c r="B99">
+        <v>2023</v>
+      </c>
+      <c r="C99">
+        <v>7</v>
+      </c>
+      <c r="D99" t="s">
+        <v>17</v>
+      </c>
+      <c r="E99" t="s">
+        <v>9</v>
+      </c>
+      <c r="F99" t="s">
+        <v>22</v>
+      </c>
+      <c r="G99" t="s">
+        <v>11</v>
+      </c>
+      <c r="H99" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100" s="3">
+        <v>1008201848682</v>
+      </c>
+      <c r="B100">
+        <v>2023</v>
+      </c>
+      <c r="C100">
+        <v>7</v>
+      </c>
+      <c r="D100" t="s">
+        <v>8</v>
+      </c>
+      <c r="E100" t="s">
+        <v>9</v>
+      </c>
+      <c r="F100" t="s">
+        <v>22</v>
+      </c>
+      <c r="G100" t="s">
+        <v>11</v>
+      </c>
+      <c r="H100" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="A101" s="3">
+        <v>1008201848682</v>
+      </c>
+      <c r="B101">
+        <v>2023</v>
+      </c>
+      <c r="C101">
+        <v>7</v>
+      </c>
+      <c r="D101" t="s">
+        <v>17</v>
+      </c>
+      <c r="E101" t="s">
+        <v>9</v>
+      </c>
+      <c r="F101" t="s">
+        <v>22</v>
+      </c>
+      <c r="G101" t="s">
+        <v>11</v>
+      </c>
+      <c r="H101" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102" s="3">
+        <v>1008202319103</v>
+      </c>
+      <c r="B102">
+        <v>2023</v>
+      </c>
+      <c r="C102">
+        <v>7</v>
+      </c>
+      <c r="D102" t="s">
+        <v>13</v>
+      </c>
+      <c r="E102" t="s">
+        <v>9</v>
+      </c>
+      <c r="F102" t="s">
+        <v>24</v>
+      </c>
+      <c r="G102" t="s">
+        <v>11</v>
+      </c>
+      <c r="H102" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="A103" s="3">
+        <v>1008202325169</v>
+      </c>
+      <c r="B103">
+        <v>2023</v>
+      </c>
+      <c r="C103">
+        <v>7</v>
+      </c>
+      <c r="D103" t="s">
+        <v>13</v>
+      </c>
+      <c r="E103" t="s">
+        <v>9</v>
+      </c>
+      <c r="F103" t="s">
+        <v>24</v>
+      </c>
+      <c r="G103" t="s">
+        <v>11</v>
+      </c>
+      <c r="H103" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="A104" s="3">
+        <v>1008202300457</v>
+      </c>
+      <c r="B104">
+        <v>2023</v>
+      </c>
+      <c r="C104">
+        <v>7</v>
+      </c>
+      <c r="D104" t="s">
+        <v>8</v>
+      </c>
+      <c r="E104" t="s">
+        <v>9</v>
+      </c>
+      <c r="F104" t="s">
+        <v>24</v>
+      </c>
+      <c r="G104" t="s">
+        <v>11</v>
+      </c>
+      <c r="H104" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="A105" s="3">
+        <v>1008202306354</v>
+      </c>
+      <c r="B105">
+        <v>2023</v>
+      </c>
+      <c r="C105">
+        <v>7</v>
+      </c>
+      <c r="D105" t="s">
+        <v>8</v>
+      </c>
+      <c r="E105" t="s">
+        <v>9</v>
+      </c>
+      <c r="F105" t="s">
+        <v>24</v>
+      </c>
+      <c r="G105" t="s">
+        <v>11</v>
+      </c>
+      <c r="H105" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
+      <c r="A106" s="3">
+        <v>1008202317163</v>
+      </c>
+      <c r="B106">
+        <v>2023</v>
+      </c>
+      <c r="C106">
+        <v>7</v>
+      </c>
+      <c r="D106" t="s">
+        <v>8</v>
+      </c>
+      <c r="E106" t="s">
+        <v>9</v>
+      </c>
+      <c r="F106" t="s">
+        <v>24</v>
+      </c>
+      <c r="G106" t="s">
+        <v>11</v>
+      </c>
+      <c r="H106" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
+      <c r="A107" s="3">
+        <v>1008202317873</v>
+      </c>
+      <c r="B107">
+        <v>2023</v>
+      </c>
+      <c r="C107">
+        <v>7</v>
+      </c>
+      <c r="D107" t="s">
+        <v>8</v>
+      </c>
+      <c r="E107" t="s">
+        <v>9</v>
+      </c>
+      <c r="F107" t="s">
+        <v>24</v>
+      </c>
+      <c r="G107" t="s">
+        <v>11</v>
+      </c>
+      <c r="H107" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
+      <c r="A108" s="3">
+        <v>1008202322187</v>
+      </c>
+      <c r="B108">
+        <v>2023</v>
+      </c>
+      <c r="C108">
+        <v>7</v>
+      </c>
+      <c r="D108" t="s">
+        <v>8</v>
+      </c>
+      <c r="E108" t="s">
+        <v>9</v>
+      </c>
+      <c r="F108" t="s">
+        <v>24</v>
+      </c>
+      <c r="G108" t="s">
+        <v>11</v>
+      </c>
+      <c r="H108" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
+      <c r="A109" s="3">
+        <v>1008202300457</v>
+      </c>
+      <c r="B109">
+        <v>2023</v>
+      </c>
+      <c r="C109">
+        <v>7</v>
+      </c>
+      <c r="D109" t="s">
+        <v>15</v>
+      </c>
+      <c r="E109" t="s">
+        <v>9</v>
+      </c>
+      <c r="F109" t="s">
+        <v>24</v>
+      </c>
+      <c r="G109" t="s">
+        <v>11</v>
+      </c>
+      <c r="H109" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
+      <c r="A110" s="3">
+        <v>1008202306354</v>
+      </c>
+      <c r="B110">
+        <v>2023</v>
+      </c>
+      <c r="C110">
+        <v>7</v>
+      </c>
+      <c r="D110" t="s">
+        <v>15</v>
+      </c>
+      <c r="E110" t="s">
+        <v>9</v>
+      </c>
+      <c r="F110" t="s">
+        <v>24</v>
+      </c>
+      <c r="G110" t="s">
+        <v>11</v>
+      </c>
+      <c r="H110" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
+      <c r="A111" s="3">
+        <v>1008202317163</v>
+      </c>
+      <c r="B111">
+        <v>2023</v>
+      </c>
+      <c r="C111">
+        <v>7</v>
+      </c>
+      <c r="D111" t="s">
+        <v>15</v>
+      </c>
+      <c r="E111" t="s">
+        <v>9</v>
+      </c>
+      <c r="F111" t="s">
+        <v>24</v>
+      </c>
+      <c r="G111" t="s">
+        <v>11</v>
+      </c>
+      <c r="H111" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
+      <c r="A112" s="3">
+        <v>1008202317873</v>
+      </c>
+      <c r="B112">
+        <v>2023</v>
+      </c>
+      <c r="C112">
+        <v>7</v>
+      </c>
+      <c r="D112" t="s">
+        <v>15</v>
+      </c>
+      <c r="E112" t="s">
+        <v>9</v>
+      </c>
+      <c r="F112" t="s">
+        <v>24</v>
+      </c>
+      <c r="G112" t="s">
+        <v>11</v>
+      </c>
+      <c r="H112" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
+      <c r="A113" s="3">
+        <v>1008202322187</v>
+      </c>
+      <c r="B113">
+        <v>2023</v>
+      </c>
+      <c r="C113">
+        <v>7</v>
+      </c>
+      <c r="D113" t="s">
+        <v>15</v>
+      </c>
+      <c r="E113" t="s">
+        <v>9</v>
+      </c>
+      <c r="F113" t="s">
+        <v>24</v>
+      </c>
+      <c r="G113" t="s">
+        <v>11</v>
+      </c>
+      <c r="H113" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
+      <c r="A114" s="3">
+        <v>1008202319659</v>
+      </c>
+      <c r="B114">
+        <v>2023</v>
+      </c>
+      <c r="C114">
+        <v>7</v>
+      </c>
+      <c r="D114" t="s">
+        <v>18</v>
+      </c>
+      <c r="E114" t="s">
+        <v>9</v>
+      </c>
+      <c r="F114" t="s">
+        <v>24</v>
+      </c>
+      <c r="G114" t="s">
+        <v>11</v>
+      </c>
+      <c r="H114" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
+      <c r="A115" s="3">
+        <v>1008202319659</v>
+      </c>
+      <c r="B115">
+        <v>2023</v>
+      </c>
+      <c r="C115">
+        <v>7</v>
+      </c>
+      <c r="D115" t="s">
+        <v>8</v>
+      </c>
+      <c r="E115" t="s">
+        <v>9</v>
+      </c>
+      <c r="F115" t="s">
+        <v>24</v>
+      </c>
+      <c r="G115" t="s">
+        <v>11</v>
+      </c>
+      <c r="H115" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
+      <c r="A116" s="3">
+        <v>1008202319659</v>
+      </c>
+      <c r="B116">
+        <v>2023</v>
+      </c>
+      <c r="C116">
+        <v>7</v>
+      </c>
+      <c r="D116" t="s">
+        <v>15</v>
+      </c>
+      <c r="E116" t="s">
+        <v>9</v>
+      </c>
+      <c r="F116" t="s">
+        <v>24</v>
+      </c>
+      <c r="G116" t="s">
+        <v>11</v>
+      </c>
+      <c r="H116" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
